--- a/originial/-file-laporan/laporan - C = 3.5.xlsx
+++ b/originial/-file-laporan/laporan - C = 3.5.xlsx
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
     <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.140625" style="2" customWidth="1"/>
